--- a/datasrc/Mappe1.xlsx
+++ b/datasrc/Mappe1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\damboeck\Java-4BHET-2021-22-A\datasrc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{935E1412-72F7-485D-816C-6717E55E9257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB7D8F-369B-4E23-A8CB-796F7E4BD51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9615" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{0A7A4F42-0BFE-4453-BE17-0F729019DA1B}"/>
+    <workbookView xWindow="3165" yWindow="3045" windowWidth="21600" windowHeight="11385" xr2:uid="{0A7A4F42-0BFE-4453-BE17-0F729019DA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D841AF-C149-4EC3-A835-9F7145EC57E2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
